--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,126 +525,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Fly with caution</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8-10</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>14</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0-9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>14</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Drag a box around or tap a target on screen Then tap Go .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Then tap Go</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10-12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>20</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack available at max speed</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/99/correct_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/99/correct_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,126 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8-10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>14</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Drag a box around or tap a target on screen Then tap Go .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Then tap Go</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10-12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>20</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed When exceeding nnn, Obstacle Avoidance is not available .</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack available at max speed</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0-5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
